--- a/biology/Médecine/1771_en_santé_et_médecine/1771_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1771_en_santé_et_médecine/1771_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1771_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1771_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1771 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1771_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1771_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Peste en Russie[1].
-Fondation de l’École de l’Université de médecine par l'ordre de Saint-Jean de Jérusalem[2].
-Felice Fontana (1730-1805) demande au Grand-Duc Léopold II de financer un atelier de modelage de cires anatomiques à Florence dans le cadre du Musée d'histoire naturelle, plus tard connu sous le nom de La Specola[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Peste en Russie.
+Fondation de l’École de l’Université de médecine par l'ordre de Saint-Jean de Jérusalem.
+Felice Fontana (1730-1805) demande au Grand-Duc Léopold II de financer un atelier de modelage de cires anatomiques à Florence dans le cadre du Musée d'histoire naturelle, plus tard connu sous le nom de La Specola.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1771_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1771_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jean François Lavoisien publie le Dictionnaire portatif de médecine, d'anatomie, de chirurgie, de pharmacie, de chymie, d'histoire naturelle, de botanique et de physique[4].
-Louis Vitet (1736-1809) fait paraître le premier tome de Médecine vétérinaire contenant L'Exposition de la structure &amp; des fonctions du Cheval &amp; du Bœuf[5].
-Jean Goulin (1728-1799) et Anselme Jourdain (1731-1816) font éditer Le Médecin des dames, ou L'art de les conserver en santé [6].
-François Boissier de Sauvages de Lacroix (1706-1767) : Nosologie méthodique: dans laquelle les maladies sont rangées par classes, suivant le système de Sydenham, et l'ordre des botanistes[7],[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jean François Lavoisien publie le Dictionnaire portatif de médecine, d'anatomie, de chirurgie, de pharmacie, de chymie, d'histoire naturelle, de botanique et de physique.
+Louis Vitet (1736-1809) fait paraître le premier tome de Médecine vétérinaire contenant L'Exposition de la structure &amp; des fonctions du Cheval &amp; du Bœuf.
+Jean Goulin (1728-1799) et Anselme Jourdain (1731-1816) font éditer Le Médecin des dames, ou L'art de les conserver en santé .
+François Boissier de Sauvages de Lacroix (1706-1767) : Nosologie méthodique: dans laquelle les maladies sont rangées par classes, suivant le système de Sydenham, et l'ordre des botanistes,.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1771_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1771_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>28 janvier : Louis-Jacques Moreau de la Sarthe (mort en 1826), médecin et anatomiste français.
 30 janvier : George Bass (disparu en mer en 1803), chirurgien dans la marine britannique.
@@ -585,7 +603,7 @@
 14 juillet : Karl Asmund Rudolphi (mort en 1832), médecin et zoologiste allemand d’origine suédoise.
 7 septembre : François Fournier de Pescay (mort en 1833), médecin et chirurgien français d'origine haïtienne.
 13 octobre : Gotthelf Fischer von Waldheim (mort en 1853), médecin, naturaliste, paléontologue et anatomiste saxon devenu sujet russe, père d'Alexandre Grigorievitch Fischer von Waldheim (1803-1884) et le grand-père d'Alexandre Alexandrovitch Fischer von Waldheim.
-14 novembre : Xavier Bichat (mort en 1802), médecin et anatomo-pathologiste français[9].</t>
+14 novembre : Xavier Bichat (mort en 1802), médecin et anatomo-pathologiste français.</t>
         </is>
       </c>
     </row>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1771_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1771_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>22 mars : Raimondo di Sangro (né en 1710), inventeur, anatomiste, militaire, écrivain et académicien italien.
 5 ou 6 décembre : Jean-Baptiste Morgagni (né en 1682), médecin anatomo-pathologiste italien.</t>
